--- a/Common Documents/Test Cases/Login Test Cases.xlsx
+++ b/Common Documents/Test Cases/Login Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshitiz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishr\OneDrive\Documents\GitHub\PecuniaFinance\Common Documents\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{858A0AC8-108B-4FB2-BEA0-7859F3A12D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5941F7B3-E042-47F6-97C8-F7CDD189F8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">        Non-Functional</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,9 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -832,24 +832,24 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="38.21875" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="26" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="25" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,9 +877,9 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33"/>
+      <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="70.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -898,40 +898,44 @@
       <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" s="12"/>
       <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="33"/>
     </row>
-    <row r="3" spans="1:10" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="17"/>
       <c r="I3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="34"/>
+      <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="70.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
@@ -944,54 +948,58 @@
       <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="22" t="s">
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="34"/>
+      <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:10" ht="67.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27" t="s">
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
